--- a/异常预测实验.xlsx
+++ b/异常预测实验.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="38">
   <si>
     <t>方法(SWaT)</t>
   </si>
@@ -43,13 +43,35 @@
     <t>F1-Score</t>
   </si>
   <si>
+    <t>在各个数据集上的结果是从不同的训练参数中选取的最优结果</t>
+  </si>
+  <si>
+    <t>回溯时间窗口大小</t>
+  </si>
+  <si>
     <t>PAD</t>
   </si>
   <si>
+    <t>msl</t>
+  </si>
+  <si>
     <t>LSTM-VAE</t>
   </si>
   <si>
+    <t>SWaT</t>
+  </si>
+  <si>
+    <t>预测时间窗口设置为4，尺度组合为2，4，8</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>D</t>
     </r>
     <r>
@@ -75,22 +97,64 @@
     </r>
   </si>
   <si>
+    <t>WADI</t>
+  </si>
+  <si>
     <t>Anomaly Transformer</t>
   </si>
   <si>
+    <t>港口数据集</t>
+  </si>
+  <si>
     <t>GANomaly</t>
   </si>
   <si>
     <t>ours</t>
   </si>
   <si>
+    <t>预测时间窗口大小</t>
+  </si>
+  <si>
+    <t>回溯时间窗口设置为64，尺度组合为2，4，8</t>
+  </si>
+  <si>
     <t>方法(msl)</t>
   </si>
   <si>
+    <t>尺度组合</t>
+  </si>
+  <si>
+    <t>2，4</t>
+  </si>
+  <si>
+    <t>2，8</t>
+  </si>
+  <si>
+    <t>2，16</t>
+  </si>
+  <si>
+    <t>4，8</t>
+  </si>
+  <si>
+    <t>2，4，8</t>
+  </si>
+  <si>
+    <t>2，4，8，16</t>
+  </si>
+  <si>
+    <t>回溯时间窗口设置为64，预测时间窗口为4</t>
+  </si>
+  <si>
+    <t>参数分析实验将结果制成折线图分析趋势</t>
+  </si>
+  <si>
     <t>方法(WADI)</t>
   </si>
   <si>
     <t>方法(港口数据集）</t>
+  </si>
+  <si>
+    <t>消融实验</t>
   </si>
   <si>
     <t>方法（港口数据集）</t>
@@ -122,10 +186,24 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -603,137 +681,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -746,8 +824,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1060,20 +1147,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="11.4444444444444" customWidth="1"/>
     <col min="4" max="4" width="24.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="69.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="16.5555555555556" customWidth="1"/>
+    <col min="18" max="18" width="13.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1086,10 +1176,34 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>16</v>
+      </c>
+      <c r="K1">
+        <v>32</v>
+      </c>
+      <c r="L1">
+        <v>64</v>
+      </c>
+      <c r="M1">
+        <v>128</v>
+      </c>
+      <c r="N1">
+        <v>256</v>
+      </c>
+      <c r="O1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>74.53</v>
@@ -1100,10 +1214,31 @@
       <c r="D2">
         <v>79.93</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>78.52</v>
+      </c>
+      <c r="K2">
+        <v>81.34</v>
+      </c>
+      <c r="L2" s="4">
+        <v>84.28</v>
+      </c>
+      <c r="M2">
+        <v>80.93</v>
+      </c>
+      <c r="N2">
+        <v>76.65</v>
+      </c>
+      <c r="O2">
+        <v>74.28</v>
+      </c>
+    </row>
+    <row r="3" ht="72" spans="1:16">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>71.24</v>
@@ -1114,10 +1249,34 @@
       <c r="D3">
         <v>72.25</v>
       </c>
-    </row>
-    <row r="4" ht="15.6" spans="1:4">
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>82.32</v>
+      </c>
+      <c r="K3" s="4">
+        <v>86.24</v>
+      </c>
+      <c r="L3">
+        <v>80.75</v>
+      </c>
+      <c r="M3">
+        <v>78.64</v>
+      </c>
+      <c r="N3">
+        <v>76.39</v>
+      </c>
+      <c r="O3">
+        <v>73.87</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>57.94</v>
@@ -1128,10 +1287,31 @@
       <c r="D4">
         <v>52.72</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>72.25</v>
+      </c>
+      <c r="K4">
+        <v>75.69</v>
+      </c>
+      <c r="L4">
+        <v>77.53</v>
+      </c>
+      <c r="M4">
+        <v>79.17</v>
+      </c>
+      <c r="N4" s="4">
+        <v>83.44</v>
+      </c>
+      <c r="O4">
+        <v>80.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>65.79</v>
@@ -1142,10 +1322,31 @@
       <c r="D5" s="2">
         <v>71.5</v>
       </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="6">
+        <v>83.42</v>
+      </c>
+      <c r="K5">
+        <v>84.67</v>
+      </c>
+      <c r="L5" s="7">
+        <v>88.46</v>
+      </c>
+      <c r="M5">
+        <v>81.05</v>
+      </c>
+      <c r="N5">
+        <v>80.87</v>
+      </c>
+      <c r="O5">
+        <v>80.23</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>81.75</v>
@@ -1159,7 +1360,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>87.57</v>
@@ -1171,9 +1372,113 @@
         <v>86.24</v>
       </c>
     </row>
+    <row r="8" spans="9:14">
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>12</v>
+      </c>
+      <c r="M8">
+        <v>16</v>
+      </c>
+      <c r="N8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" ht="72" spans="9:16">
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="4">
+        <v>84.28</v>
+      </c>
+      <c r="K9">
+        <v>82.15</v>
+      </c>
+      <c r="L9" s="6">
+        <v>79.32</v>
+      </c>
+      <c r="M9">
+        <v>77.64</v>
+      </c>
+      <c r="N9">
+        <v>74.02</v>
+      </c>
+      <c r="O9"/>
+      <c r="P9" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="9:14">
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="4">
+        <v>80.75</v>
+      </c>
+      <c r="K10" s="6">
+        <v>76.43</v>
+      </c>
+      <c r="L10">
+        <v>74.87</v>
+      </c>
+      <c r="M10">
+        <v>72.35</v>
+      </c>
+      <c r="N10">
+        <v>70.05</v>
+      </c>
+    </row>
+    <row r="11" spans="9:14">
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="4">
+        <v>77.53</v>
+      </c>
+      <c r="K11">
+        <v>73.76</v>
+      </c>
+      <c r="L11">
+        <v>71.89</v>
+      </c>
+      <c r="M11">
+        <v>69.43</v>
+      </c>
+      <c r="N11" s="6">
+        <v>67.52</v>
+      </c>
+    </row>
+    <row r="12" spans="9:14">
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="7">
+        <v>88.46</v>
+      </c>
+      <c r="K12">
+        <v>79.56</v>
+      </c>
+      <c r="L12">
+        <v>77.54</v>
+      </c>
+      <c r="M12">
+        <v>73.21</v>
+      </c>
+      <c r="N12">
+        <v>70.08</v>
+      </c>
+    </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -1187,7 +1492,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>81.26</v>
@@ -1199,9 +1504,9 @@
         <v>85.26</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>58.72</v>
@@ -1212,10 +1517,40 @@
       <c r="D15">
         <v>61.39</v>
       </c>
-    </row>
-    <row r="16" ht="15.6" spans="1:4">
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="M15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" ht="72" spans="1:19">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>68.91</v>
@@ -1226,10 +1561,43 @@
       <c r="D16">
         <v>59.96</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="6">
+        <v>75.35</v>
+      </c>
+      <c r="K16">
+        <v>76.12</v>
+      </c>
+      <c r="L16" s="6">
+        <v>78.24</v>
+      </c>
+      <c r="M16">
+        <v>80.15</v>
+      </c>
+      <c r="N16">
+        <v>77.64</v>
+      </c>
+      <c r="O16">
+        <v>72.18</v>
+      </c>
+      <c r="P16">
+        <v>79.57</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>84.28</v>
+      </c>
+      <c r="R16">
+        <v>81.36</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>74.89</v>
@@ -1240,10 +1608,40 @@
       <c r="D17" s="2">
         <v>77.94</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="I17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="6">
+        <v>76.54</v>
+      </c>
+      <c r="K17" s="6">
+        <v>77.19</v>
+      </c>
+      <c r="L17">
+        <v>76.75</v>
+      </c>
+      <c r="M17">
+        <v>79.08</v>
+      </c>
+      <c r="N17">
+        <v>78.13</v>
+      </c>
+      <c r="O17">
+        <v>71.48</v>
+      </c>
+      <c r="P17" s="7">
+        <v>82.37</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>80.75</v>
+      </c>
+      <c r="R17">
+        <v>81.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>76.07</v>
@@ -1254,10 +1652,40 @@
       <c r="D18">
         <v>72.11</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="6">
+        <v>71.84</v>
+      </c>
+      <c r="K18">
+        <v>73.79</v>
+      </c>
+      <c r="L18">
+        <v>75.59</v>
+      </c>
+      <c r="M18">
+        <v>73.54</v>
+      </c>
+      <c r="N18" s="6">
+        <v>74.38</v>
+      </c>
+      <c r="O18">
+        <v>72.56</v>
+      </c>
+      <c r="P18">
+        <v>78.52</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>77.53</v>
+      </c>
+      <c r="R18" s="7">
+        <v>82.19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>80.37</v>
@@ -1268,10 +1696,45 @@
       <c r="D19">
         <v>84.28</v>
       </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="6">
+        <v>76.84</v>
+      </c>
+      <c r="K19">
+        <v>76.32</v>
+      </c>
+      <c r="L19">
+        <v>79.15</v>
+      </c>
+      <c r="M19">
+        <v>82.57</v>
+      </c>
+      <c r="N19">
+        <v>78.59</v>
+      </c>
+      <c r="O19">
+        <v>75.62</v>
+      </c>
+      <c r="P19">
+        <v>81.47</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>88.46</v>
+      </c>
+      <c r="R19">
+        <v>85.29</v>
+      </c>
+    </row>
+    <row r="23" ht="43.2" spans="9:9">
+      <c r="I23" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -1285,7 +1748,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>78.47</v>
@@ -1299,7 +1762,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B26">
         <v>75.21</v>
@@ -1313,7 +1776,7 @@
     </row>
     <row r="27" ht="15.6" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>73.46</v>
@@ -1327,7 +1790,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>81.41</v>
@@ -1341,7 +1804,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B29">
         <v>65.54</v>
@@ -1355,7 +1818,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B30">
         <v>84.76</v>
@@ -1369,7 +1832,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -1383,7 +1846,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>74.39</v>
@@ -1397,7 +1860,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B36">
         <v>62.07</v>
@@ -1411,7 +1874,7 @@
     </row>
     <row r="37" ht="15.6" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>65.87</v>
@@ -1425,7 +1888,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B38">
         <v>71.21</v>
@@ -1439,7 +1902,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B39">
         <v>53.42</v>
@@ -1453,7 +1916,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B40">
         <v>86.85</v>
@@ -1463,12 +1926,17 @@
       </c>
       <c r="D40">
         <v>88.46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1"/>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -1482,7 +1950,7 @@
     </row>
     <row r="47" ht="28.8" spans="1:4">
       <c r="A47" s="3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B47">
         <v>80.13</v>
@@ -1496,7 +1964,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B48">
         <v>78.24</v>
@@ -1509,8 +1977,8 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="4" t="s">
-        <v>16</v>
+      <c r="A49" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B49">
         <v>81.57</v>
@@ -1523,8 +1991,8 @@
       </c>
     </row>
     <row r="50" ht="28.8" spans="1:4">
-      <c r="A50" s="4" t="s">
-        <v>17</v>
+      <c r="A50" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B50">
         <v>83.54</v>
@@ -1538,7 +2006,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B51">
         <v>86.85</v>
@@ -1548,6 +2016,258 @@
       </c>
       <c r="D51">
         <v>88.46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" ht="28.8" spans="1:4">
+      <c r="A55" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55">
+        <v>76.12</v>
+      </c>
+      <c r="C55">
+        <v>73.25</v>
+      </c>
+      <c r="D55">
+        <v>74.68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56">
+        <v>80.16</v>
+      </c>
+      <c r="C56">
+        <v>78.26</v>
+      </c>
+      <c r="D56" s="2">
+        <v>79.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57">
+        <v>73.29</v>
+      </c>
+      <c r="C57">
+        <v>77.51</v>
+      </c>
+      <c r="D57">
+        <v>75.33</v>
+      </c>
+    </row>
+    <row r="58" ht="28.8" spans="1:4">
+      <c r="A58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58">
+        <v>81.27</v>
+      </c>
+      <c r="C58" s="2">
+        <v>75.42</v>
+      </c>
+      <c r="D58">
+        <v>78.23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59">
+        <v>87.57</v>
+      </c>
+      <c r="C59">
+        <v>84.95</v>
+      </c>
+      <c r="D59">
+        <v>86.24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" ht="28.8" spans="1:4">
+      <c r="A62" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62">
+        <v>71.34</v>
+      </c>
+      <c r="C62">
+        <v>74.85</v>
+      </c>
+      <c r="D62">
+        <v>73.07</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63">
+        <v>75.29</v>
+      </c>
+      <c r="C63">
+        <v>71.36</v>
+      </c>
+      <c r="D63" s="2">
+        <v>73.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64">
+        <v>70.82</v>
+      </c>
+      <c r="C64">
+        <v>79.18</v>
+      </c>
+      <c r="D64">
+        <v>74.71</v>
+      </c>
+    </row>
+    <row r="65" ht="28.8" spans="1:4">
+      <c r="A65" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65">
+        <v>78.56</v>
+      </c>
+      <c r="C65" s="2">
+        <v>83.21</v>
+      </c>
+      <c r="D65">
+        <v>80.81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66">
+        <v>80.37</v>
+      </c>
+      <c r="C66">
+        <v>88.59</v>
+      </c>
+      <c r="D66">
+        <v>84.28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" ht="28.8" spans="1:4">
+      <c r="A70" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70">
+        <v>72.39</v>
+      </c>
+      <c r="C70">
+        <v>70.53</v>
+      </c>
+      <c r="D70">
+        <v>71.45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71">
+        <v>78.49</v>
+      </c>
+      <c r="C71">
+        <v>73.58</v>
+      </c>
+      <c r="D71" s="2">
+        <v>75.88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72">
+        <v>68.31</v>
+      </c>
+      <c r="C72">
+        <v>74.64</v>
+      </c>
+      <c r="D72">
+        <v>71.34</v>
+      </c>
+    </row>
+    <row r="73" ht="28.8" spans="1:4">
+      <c r="A73" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73">
+        <v>80.18</v>
+      </c>
+      <c r="C73" s="2">
+        <v>76.07</v>
+      </c>
+      <c r="D73">
+        <v>78.11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74">
+        <v>84.76</v>
+      </c>
+      <c r="C74">
+        <v>82.17</v>
+      </c>
+      <c r="D74">
+        <v>83.44</v>
       </c>
     </row>
   </sheetData>
